--- a/biology/Médecine/Classification_internationale_des_troubles_du_sommeil/Classification_internationale_des_troubles_du_sommeil.xlsx
+++ b/biology/Médecine/Classification_internationale_des_troubles_du_sommeil/Classification_internationale_des_troubles_du_sommeil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Classification internationale des troubles du sommeil a été établie par l'American Academy of Sleep Medicine et a été présentée dans le rapport Giordanella[1]. Elle fait référence en matière de troubles du sommeil.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Classification internationale des troubles du sommeil a été établie par l'American Academy of Sleep Medicine et a été présentée dans le rapport Giordanella. Elle fait référence en matière de troubles du sommeil.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,18 +553,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Syndromes d’apnées centrales du sommeil
-Syndrome d’apnée centrale essentiel
+          <t>Syndromes d’apnées centrales du sommeil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome d’apnée centrale essentiel
 Syndrome d’apnée centrale de type Cheyne-Stokes
 Syndrome d’apnée centrale en relation avec une respiration périodique de l’altitude
 Syndrome d’apnée centrale en relation avec un problème médical autre qu’un Cheyne Stokes
 Syndrome d’apnée centrale dû à une drogue ou à une substance
-Syndrome d’apnée centrale essentiel de l’enfant
-Syndromes d’apnées obstructives du sommeil
-Syndrome d’apnée obstructive du sommeil de l’adulte
-Syndrome d’apnée obstructive du sommeil de l’enfant (pédiatrie)
-Syndromes d’hypoventilation / hypoxie du sommeil
-Hypoventilation alvéolaire du sommeil non obstructive, idiopathique
+Syndrome d’apnée centrale essentiel de l’enfant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil en relation avec la respiration</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Syndromes d’apnées obstructives du sommeil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome d’apnée obstructive du sommeil de l’adulte
+Syndrome d’apnée obstructive du sommeil de l’enfant (pédiatrie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Troubles du sommeil en relation avec la respiration</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Syndromes d’hypoventilation / hypoxie du sommeil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hypoventilation alvéolaire du sommeil non obstructive, idiopathique
 Syndrome d’hypoventilation alvéolaire central congénital ou syndrome d'Ondine
 Syndromes d’hypoventilation / hypoxie du sommeil en relation avec une pathologie
 Syndromes d’hypoventilation / hypoxie du sommeil causée par une pathologie pulmonaire ou vasculaire
@@ -559,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hypersomnies d'origine centrale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Non reliée à un trouble du rythme circadien, respiratoire ou une autre cause de trouble du sommeil nocturne
 Narcolepsie avec cataplexie
@@ -602,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Troubles du rythme circadien du sommeil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syndrome de retard de phase
 Syndrome d’avance de phase
@@ -640,31 +731,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Parasomnie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Parasomnies par trouble de l'éveil en sommeil non REM
 Eveil confusionnel
@@ -688,31 +781,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Mouvements en relation avec le sommeil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Syndrome des jambes sans repos
 Syndrome des mouvements périodiques du sommeil
@@ -725,31 +820,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Symptômes isolés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Apparemment normaux ou non expliqués
 Long dormeur
@@ -761,31 +858,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autres troubles du sommeil</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Troubles du sommeil physiologique (organique)
 Autre trouble du sommeil non dû à une substance ou un état physiologique
@@ -794,31 +893,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Appendice A</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Troubles du sommeil associés à des pathologies classées ailleurs :
 Fibromyalgie
@@ -830,31 +931,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_troubles_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Appendice B</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Autres troubles comportementaux et psychiques fréquemment rencontrés dans le diagnostic différentiel des troubles du sommeil :
 Troubles de l’humeur
